--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Chrna7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.033624</v>
+      </c>
+      <c r="H2">
+        <v>0.100872</v>
+      </c>
+      <c r="I2">
+        <v>0.03079659537519841</v>
+      </c>
+      <c r="J2">
+        <v>0.03079659537519841</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.9671793333333333</v>
-      </c>
-      <c r="H2">
-        <v>2.901538</v>
-      </c>
-      <c r="I2">
-        <v>0.9567964966834895</v>
-      </c>
-      <c r="J2">
-        <v>0.9567964966834897</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05437633333333333</v>
+        <v>0.2159606666666667</v>
       </c>
       <c r="N2">
-        <v>0.163129</v>
+        <v>0.647882</v>
       </c>
       <c r="O2">
-        <v>0.01289405845289636</v>
+        <v>0.09879736522873545</v>
       </c>
       <c r="P2">
-        <v>0.01289405845289636</v>
+        <v>0.09879736522873543</v>
       </c>
       <c r="Q2">
-        <v>0.05259166582244444</v>
+        <v>0.007261461456</v>
       </c>
       <c r="R2">
-        <v>0.473324992402</v>
+        <v>0.065353153104</v>
       </c>
       <c r="S2">
-        <v>0.01233698995576337</v>
+        <v>0.003042622481085062</v>
       </c>
       <c r="T2">
-        <v>0.01233698995576338</v>
+        <v>0.003042622481085062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9671793333333333</v>
+        <v>0.033624</v>
       </c>
       <c r="H3">
-        <v>2.901538</v>
+        <v>0.100872</v>
       </c>
       <c r="I3">
-        <v>0.9567964966834895</v>
+        <v>0.03079659537519841</v>
       </c>
       <c r="J3">
-        <v>0.9567964966834897</v>
+        <v>0.03079659537519841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,39 +614,39 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2159606666666667</v>
+        <v>1.969934333333333</v>
       </c>
       <c r="N3">
-        <v>0.647882</v>
+        <v>5.909803</v>
       </c>
       <c r="O3">
-        <v>0.05120995272808269</v>
+        <v>0.9012026347712646</v>
       </c>
       <c r="P3">
-        <v>0.05120995272808269</v>
+        <v>0.9012026347712645</v>
       </c>
       <c r="Q3">
-        <v>0.2088726936128889</v>
+        <v>0.066237072024</v>
       </c>
       <c r="R3">
-        <v>1.879854242516</v>
+        <v>0.596133648216</v>
       </c>
       <c r="S3">
-        <v>0.04899750336555663</v>
+        <v>0.02775397289411335</v>
       </c>
       <c r="T3">
-        <v>0.04899750336555663</v>
+        <v>0.02775397289411335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +664,10 @@
         <v>2.901538</v>
       </c>
       <c r="I4">
-        <v>0.9567964966834895</v>
+        <v>0.8858503028765409</v>
       </c>
       <c r="J4">
-        <v>0.9567964966834897</v>
+        <v>0.8858503028765411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.946825</v>
+        <v>0.2159606666666667</v>
       </c>
       <c r="N4">
-        <v>11.840475</v>
+        <v>0.647882</v>
       </c>
       <c r="O4">
-        <v>0.9358959888190209</v>
+        <v>0.09879736522873545</v>
       </c>
       <c r="P4">
-        <v>0.9358959888190209</v>
+        <v>0.09879736522873543</v>
       </c>
       <c r="Q4">
-        <v>3.817287572283333</v>
+        <v>0.2088726936128889</v>
       </c>
       <c r="R4">
-        <v>34.35558815055</v>
+        <v>1.879854242516</v>
       </c>
       <c r="S4">
-        <v>0.8954620033621695</v>
+        <v>0.08751967591127952</v>
       </c>
       <c r="T4">
-        <v>0.8954620033621696</v>
+        <v>0.08751967591127953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,93 +705,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04367233333333333</v>
+        <v>0.9671793333333333</v>
       </c>
       <c r="H5">
-        <v>0.131017</v>
+        <v>2.901538</v>
       </c>
       <c r="I5">
-        <v>0.04320350331651034</v>
+        <v>0.8858503028765409</v>
       </c>
       <c r="J5">
-        <v>0.04320350331651034</v>
+        <v>0.8858503028765411</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05437633333333333</v>
+        <v>1.969934333333333</v>
       </c>
       <c r="N5">
-        <v>0.163129</v>
+        <v>5.909803</v>
       </c>
       <c r="O5">
-        <v>0.01289405845289636</v>
+        <v>0.9012026347712646</v>
       </c>
       <c r="P5">
-        <v>0.01289405845289636</v>
+        <v>0.9012026347712645</v>
       </c>
       <c r="Q5">
-        <v>0.002374741354777778</v>
+        <v>1.905279775223778</v>
       </c>
       <c r="R5">
-        <v>0.021372672193</v>
+        <v>17.147517977014</v>
       </c>
       <c r="S5">
-        <v>0.0005570684971329861</v>
+        <v>0.7983306269652614</v>
       </c>
       <c r="T5">
-        <v>0.0005570684971329861</v>
+        <v>0.7983306269652615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04367233333333333</v>
+        <v>0.09100566666666665</v>
       </c>
       <c r="H6">
-        <v>0.131017</v>
+        <v>0.273017</v>
       </c>
       <c r="I6">
-        <v>0.04320350331651034</v>
+        <v>0.08335310174826059</v>
       </c>
       <c r="J6">
-        <v>0.04320350331651034</v>
+        <v>0.08335310174826061</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,54 +806,54 @@
         <v>0.647882</v>
       </c>
       <c r="O6">
-        <v>0.05120995272808269</v>
+        <v>0.09879736522873545</v>
       </c>
       <c r="P6">
-        <v>0.05120995272808269</v>
+        <v>0.09879736522873543</v>
       </c>
       <c r="Q6">
-        <v>0.009431506221555556</v>
+        <v>0.01965364444377777</v>
       </c>
       <c r="R6">
-        <v>0.08488355599399999</v>
+        <v>0.1768827999939999</v>
       </c>
       <c r="S6">
-        <v>0.002212449362526058</v>
+        <v>0.008235066836370849</v>
       </c>
       <c r="T6">
-        <v>0.002212449362526058</v>
+        <v>0.008235066836370849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04367233333333333</v>
+        <v>0.09100566666666665</v>
       </c>
       <c r="H7">
-        <v>0.131017</v>
+        <v>0.273017</v>
       </c>
       <c r="I7">
-        <v>0.04320350331651034</v>
+        <v>0.08335310174826059</v>
       </c>
       <c r="J7">
-        <v>0.04320350331651034</v>
+        <v>0.08335310174826061</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946825</v>
+        <v>1.969934333333333</v>
       </c>
       <c r="N7">
-        <v>11.840475</v>
+        <v>5.909803</v>
       </c>
       <c r="O7">
-        <v>0.9358959888190209</v>
+        <v>0.9012026347712646</v>
       </c>
       <c r="P7">
-        <v>0.9358959888190209</v>
+        <v>0.9012026347712645</v>
       </c>
       <c r="Q7">
-        <v>0.1723670570083333</v>
+        <v>0.1792751872945555</v>
       </c>
       <c r="R7">
-        <v>1.551303513075</v>
+        <v>1.613476685651</v>
       </c>
       <c r="S7">
-        <v>0.04043398545685129</v>
+        <v>0.07511803491188974</v>
       </c>
       <c r="T7">
-        <v>0.04043398545685129</v>
+        <v>0.07511803491188974</v>
       </c>
     </row>
   </sheetData>
